--- a/src/app/shared/services/reader/excel/test.xlsx
+++ b/src/app/shared/services/reader/excel/test.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\temp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspaces.git\koia\src\app\shared\services\reader\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>a</t>
   </si>
@@ -42,6 +42,9 @@
   </si>
   <si>
     <t>c4</t>
+  </si>
+  <si>
+    <t>c</t>
   </si>
 </sst>
 </file>
@@ -77,9 +80,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -363,7 +367,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -389,7 +393,7 @@
       <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="2">
         <v>1</v>
       </c>
       <c r="C2" t="b">
@@ -403,7 +407,7 @@
       <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="2">
         <v>2</v>
       </c>
       <c r="C3" t="b">
@@ -415,9 +419,9 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4">
+        <v>6</v>
+      </c>
+      <c r="B4" s="2">
         <v>3</v>
       </c>
       <c r="C4" t="b">
@@ -429,5 +433,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/src/app/shared/services/reader/excel/test.xlsx
+++ b/src/app/shared/services/reader/excel/test.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspaces.git\koia\src\app\shared\services\reader\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace.koia\koia\src\app\shared\services\reader\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -367,7 +367,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -414,7 +414,7 @@
         <v>0</v>
       </c>
       <c r="D3" s="1">
-        <v>43621</v>
+        <v>43622</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
